--- a/Isochrone/Excel Data/professional.xlsx
+++ b/Isochrone/Excel Data/professional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7655D902-B7F6-4D33-A1DD-6BFB4B190A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CB846-8148-47DA-AEA6-1E6FD13E8F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="6150" windowWidth="25440" windowHeight="15390" xr2:uid="{B9932871-97C8-4E27-8B67-9313D394A22C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Number</t>
   </si>
@@ -430,16 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4723DCA5-03EE-4BE5-A874-3FF632076A34}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.62890625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -502,7 +503,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -511,32 +512,15 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="G3">
         <v>-78.113039999999998</v>
       </c>
-      <c r="H4">
+      <c r="H3">
         <v>38.245869999999996</v>
       </c>
     </row>
